--- a/Documentation/JournalDeTravail-DTZ_DMS.xlsx
+++ b/Documentation/JournalDeTravail-DTZ_DMS.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
   <si>
     <t>Nom du Projet :</t>
   </si>
@@ -118,6 +118,12 @@
   </si>
   <si>
     <t>Diego Pinto Tomaz</t>
+  </si>
+  <si>
+    <t>IceScrum</t>
+  </si>
+  <si>
+    <t>Mise à jour de l'IceScrum(Userstory, Sprint)</t>
   </si>
 </sst>
 </file>
@@ -1335,8 +1341,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N9999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1496,7 +1502,7 @@
       <c r="C7" s="37"/>
       <c r="D7" s="40">
         <f>SUM(Tableau1[Durée])</f>
-        <v>0.12083333333333357</v>
+        <v>0.15555555555555589</v>
       </c>
       <c r="E7" s="41"/>
       <c r="G7" s="4">
@@ -1526,17 +1532,31 @@
       </c>
     </row>
     <row r="8" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G8" s="4"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="6"/>
+      <c r="G8" s="4">
+        <v>44964</v>
+      </c>
+      <c r="H8" s="5">
+        <v>0.67013888888888884</v>
+      </c>
+      <c r="I8" s="6">
+        <v>0.70486111111111116</v>
+      </c>
       <c r="J8" s="5">
         <f>Tableau1[[#This Row],[Heure fin]]-Tableau1[[#This Row],[Heure debut]]</f>
-        <v>0</v>
+        <v>3.4722222222222321E-2</v>
       </c>
-      <c r="K8" s="7"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
+      <c r="K8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="9" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="16"/>

--- a/Documentation/JournalDeTravail-DTZ_DMS.xlsx
+++ b/Documentation/JournalDeTravail-DTZ_DMS.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="40">
   <si>
     <t>Nom du Projet :</t>
   </si>
@@ -124,6 +124,27 @@
   </si>
   <si>
     <t>Mise à jour de l'IceScrum(Userstory, Sprint)</t>
+  </si>
+  <si>
+    <t>Choix Template</t>
+  </si>
+  <si>
+    <t>Choix d'un template E-Commerce pour le début du code</t>
+  </si>
+  <si>
+    <t>Recherche d'un template</t>
+  </si>
+  <si>
+    <t>Recherche d'un template pour le commencement du code</t>
+  </si>
+  <si>
+    <t>Simão Henriques da Silva , Marcos Valente da Silva , Diego Pinto Tomaz</t>
+  </si>
+  <si>
+    <t>Début du code</t>
+  </si>
+  <si>
+    <t>j'ai codé dans l'index.php, controller.php et model.php</t>
   </si>
 </sst>
 </file>
@@ -674,40 +695,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -734,7 +728,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
@@ -747,6 +768,24 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="17">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="hh/mm&quot; h&quot;;@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="medium">
@@ -918,24 +957,6 @@
         <left style="medium">
           <color indexed="64"/>
         </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="hh/mm&quot; h&quot;;@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
         <right/>
         <top style="thin">
           <color indexed="64"/>
@@ -1052,25 +1073,25 @@
     <tableColumn id="1" name="Date" dataDxfId="13"/>
     <tableColumn id="2" name="Heure debut" dataDxfId="12"/>
     <tableColumn id="3" name="Heure fin" dataDxfId="11"/>
-    <tableColumn id="4" name="Durée" dataDxfId="10">
+    <tableColumn id="4" name="Durée" dataDxfId="0">
       <calculatedColumnFormula>Tableau1[[#This Row],[Heure fin]]-Tableau1[[#This Row],[Heure debut]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Emplacement" dataDxfId="9"/>
-    <tableColumn id="7" name="Tâches" dataDxfId="8"/>
-    <tableColumn id="8" name="Résumé du travail" dataDxfId="7"/>
-    <tableColumn id="5" name="Fait par " dataDxfId="6"/>
+    <tableColumn id="6" name="Emplacement" dataDxfId="10"/>
+    <tableColumn id="7" name="Tâches" dataDxfId="9"/>
+    <tableColumn id="8" name="Résumé du travail" dataDxfId="8"/>
+    <tableColumn id="5" name="Fait par " dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tableau7" displayName="Tableau7" ref="C3:E63" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tableau7" displayName="Tableau7" ref="C3:E63" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4">
   <autoFilter ref="C3:E63"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Date" dataDxfId="2"/>
-    <tableColumn id="2" name="Description" dataDxfId="1"/>
-    <tableColumn id="3" name="Vip" dataDxfId="0"/>
+    <tableColumn id="1" name="Date" dataDxfId="3"/>
+    <tableColumn id="2" name="Description" dataDxfId="2"/>
+    <tableColumn id="3" name="Vip" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1341,8 +1362,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N9999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1364,27 +1385,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G1" s="50" t="s">
+      <c r="G1" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
     </row>
     <row r="2" spans="2:14" ht="21" x14ac:dyDescent="0.25">
       <c r="F2" s="17"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="50"/>
-      <c r="N2" s="50"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
     </row>
     <row r="3" spans="2:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F3" s="18"/>
@@ -1392,14 +1413,14 @@
       <c r="H3" s="18"/>
     </row>
     <row r="4" spans="2:14" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="43"/>
-      <c r="D4" s="48" t="s">
+      <c r="C4" s="34"/>
+      <c r="D4" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="49"/>
+      <c r="E4" s="40"/>
       <c r="G4" s="20" t="s">
         <v>1</v>
       </c>
@@ -1426,14 +1447,14 @@
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="39"/>
-      <c r="D5" s="46" t="s">
+      <c r="C5" s="32"/>
+      <c r="D5" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="47"/>
+      <c r="E5" s="38"/>
       <c r="G5" s="4">
         <v>44957</v>
       </c>
@@ -1461,14 +1482,14 @@
       </c>
     </row>
     <row r="6" spans="2:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="39"/>
-      <c r="D6" s="44">
+      <c r="C6" s="32"/>
+      <c r="D6" s="35">
         <v>44957</v>
       </c>
-      <c r="E6" s="45"/>
+      <c r="E6" s="36"/>
       <c r="G6" s="4">
         <v>44957</v>
       </c>
@@ -1496,15 +1517,15 @@
       </c>
     </row>
     <row r="7" spans="2:14" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="40">
+      <c r="C7" s="48"/>
+      <c r="D7" s="49">
         <f>SUM(Tableau1[Durée])</f>
-        <v>0.15555555555555589</v>
+        <v>0.29097222222222241</v>
       </c>
-      <c r="E7" s="41"/>
+      <c r="E7" s="50"/>
       <c r="G7" s="4">
         <v>44958</v>
       </c>
@@ -1558,76 +1579,132 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:14" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="16"/>
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="31"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="6"/>
+      <c r="D9" s="42"/>
+      <c r="G9" s="4">
+        <v>44977</v>
+      </c>
+      <c r="H9" s="5">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I9" s="6">
+        <v>0.35416666666666669</v>
+      </c>
       <c r="J9" s="5">
         <f>Tableau1[[#This Row],[Heure fin]]-Tableau1[[#This Row],[Heure debut]]</f>
-        <v>0</v>
+        <v>2.083333333333337E-2</v>
       </c>
-      <c r="K9" s="7"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-    </row>
-    <row r="10" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K9" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="32" t="s">
+      <c r="C10" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="33"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="6"/>
+      <c r="D10" s="44"/>
+      <c r="G10" s="4">
+        <v>44978</v>
+      </c>
+      <c r="H10" s="5">
+        <v>0.67708333333333337</v>
+      </c>
+      <c r="I10" s="6">
+        <v>0.70138888888888884</v>
+      </c>
       <c r="J10" s="5">
         <f>Tableau1[[#This Row],[Heure fin]]-Tableau1[[#This Row],[Heure debut]]</f>
-        <v>0</v>
+        <v>2.4305555555555469E-2</v>
       </c>
-      <c r="K10" s="7"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-    </row>
-    <row r="11" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K10" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="34" t="s">
+      <c r="C11" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="35"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="6"/>
+      <c r="D11" s="46"/>
+      <c r="G11" s="4">
+        <v>44979</v>
+      </c>
+      <c r="H11" s="5">
+        <v>0.60069444444444442</v>
+      </c>
+      <c r="I11" s="6">
+        <v>0.62847222222222221</v>
+      </c>
       <c r="J11" s="5">
         <f>Tableau1[[#This Row],[Heure fin]]-Tableau1[[#This Row],[Heure debut]]</f>
-        <v>0</v>
+        <v>2.777777777777779E-2</v>
       </c>
-      <c r="K11" s="7"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="G12" s="4"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="6"/>
+      <c r="K11" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L11" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="G12" s="4">
+        <v>44979</v>
+      </c>
+      <c r="H12" s="5">
+        <v>0.63888888888888895</v>
+      </c>
+      <c r="I12" s="6">
+        <v>0.70138888888888884</v>
+      </c>
       <c r="J12" s="5">
         <f>Tableau1[[#This Row],[Heure fin]]-Tableau1[[#This Row],[Heure debut]]</f>
-        <v>0</v>
+        <v>6.2499999999999889E-2</v>
       </c>
-      <c r="K12" s="7"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
+      <c r="K12" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L12" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="G13" s="4"/>
@@ -44162,18 +44239,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D7:E7"/>
     <mergeCell ref="G1:N2"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="D4:E4"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D7:E7"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D4" r:id="rId1"/>
@@ -44534,9 +44611,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -44710,26 +44790,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D38AEF9-57C3-439A-B892-EB0F14AB4CC0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE66B988-21FD-4E82-857E-C2E9A6618F3F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="9b42e094-9454-4e38-a519-f9a276a20d04"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -44753,9 +44822,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE66B988-21FD-4E82-857E-C2E9A6618F3F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D38AEF9-57C3-439A-B892-EB0F14AB4CC0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="9b42e094-9454-4e38-a519-f9a276a20d04"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Documentation/JournalDeTravail-DTZ_DMS.xlsx
+++ b/Documentation/JournalDeTravail-DTZ_DMS.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diego.PINTO-TOMAZ\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diego.PINTO-TOMAZ\Documents\GitHub\ProjetWebDMS\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="46">
   <si>
     <t>Nom du Projet :</t>
   </si>
@@ -145,6 +145,24 @@
   </si>
   <si>
     <t>j'ai codé dans l'index.php, controller.php et model.php</t>
+  </si>
+  <si>
+    <t>Organisation des sprints</t>
+  </si>
+  <si>
+    <t>Organisations des story à effectuer dans les sprints à suivre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Création du gabarit </t>
+  </si>
+  <si>
+    <t>Création de la page gabarit servant à séparer l'header et le footer des autres pages</t>
+  </si>
+  <si>
+    <t>Ajout des redirections</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ajout des redirections vers toutes les pages </t>
   </si>
 </sst>
 </file>
@@ -695,13 +713,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -728,36 +776,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -768,24 +786,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="17">
-    <dxf>
-      <numFmt numFmtId="164" formatCode="hh/mm&quot; h&quot;;@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="medium">
@@ -953,6 +953,24 @@
     <dxf>
       <numFmt numFmtId="164" formatCode="hh/mm&quot; h&quot;;@"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="hh/mm&quot; h&quot;;@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="medium">
           <color indexed="64"/>
@@ -1073,25 +1091,25 @@
     <tableColumn id="1" name="Date" dataDxfId="13"/>
     <tableColumn id="2" name="Heure debut" dataDxfId="12"/>
     <tableColumn id="3" name="Heure fin" dataDxfId="11"/>
-    <tableColumn id="4" name="Durée" dataDxfId="0">
+    <tableColumn id="4" name="Durée" dataDxfId="10">
       <calculatedColumnFormula>Tableau1[[#This Row],[Heure fin]]-Tableau1[[#This Row],[Heure debut]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Emplacement" dataDxfId="10"/>
-    <tableColumn id="7" name="Tâches" dataDxfId="9"/>
-    <tableColumn id="8" name="Résumé du travail" dataDxfId="8"/>
-    <tableColumn id="5" name="Fait par " dataDxfId="7"/>
+    <tableColumn id="6" name="Emplacement" dataDxfId="9"/>
+    <tableColumn id="7" name="Tâches" dataDxfId="8"/>
+    <tableColumn id="8" name="Résumé du travail" dataDxfId="7"/>
+    <tableColumn id="5" name="Fait par " dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tableau7" displayName="Tableau7" ref="C3:E63" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tableau7" displayName="Tableau7" ref="C3:E63" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3">
   <autoFilter ref="C3:E63"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Date" dataDxfId="3"/>
-    <tableColumn id="2" name="Description" dataDxfId="2"/>
-    <tableColumn id="3" name="Vip" dataDxfId="1"/>
+    <tableColumn id="1" name="Date" dataDxfId="2"/>
+    <tableColumn id="2" name="Description" dataDxfId="1"/>
+    <tableColumn id="3" name="Vip" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1362,8 +1380,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N9999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1385,27 +1403,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
     </row>
     <row r="2" spans="2:14" ht="21" x14ac:dyDescent="0.25">
       <c r="F2" s="17"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
     </row>
     <row r="3" spans="2:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F3" s="18"/>
@@ -1413,14 +1431,14 @@
       <c r="H3" s="18"/>
     </row>
     <row r="4" spans="2:14" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="34"/>
-      <c r="D4" s="39" t="s">
+      <c r="C4" s="44"/>
+      <c r="D4" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="40"/>
+      <c r="E4" s="50"/>
       <c r="G4" s="20" t="s">
         <v>1</v>
       </c>
@@ -1447,14 +1465,14 @@
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="32"/>
-      <c r="D5" s="37" t="s">
+      <c r="C5" s="39"/>
+      <c r="D5" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="38"/>
+      <c r="E5" s="48"/>
       <c r="G5" s="4">
         <v>44957</v>
       </c>
@@ -1482,14 +1500,14 @@
       </c>
     </row>
     <row r="6" spans="2:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="32"/>
-      <c r="D6" s="35">
+      <c r="C6" s="39"/>
+      <c r="D6" s="45">
         <v>44957</v>
       </c>
-      <c r="E6" s="36"/>
+      <c r="E6" s="46"/>
       <c r="G6" s="4">
         <v>44957</v>
       </c>
@@ -1517,15 +1535,15 @@
       </c>
     </row>
     <row r="7" spans="2:14" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="48"/>
-      <c r="D7" s="49">
+      <c r="C7" s="37"/>
+      <c r="D7" s="40">
         <f>SUM(Tableau1[Durée])</f>
-        <v>0.29097222222222241</v>
+        <v>0.4159722222222223</v>
       </c>
-      <c r="E7" s="50"/>
+      <c r="E7" s="41"/>
       <c r="G7" s="4">
         <v>44958</v>
       </c>
@@ -1581,10 +1599,10 @@
     </row>
     <row r="9" spans="2:14" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="16"/>
-      <c r="C9" s="41" t="s">
+      <c r="C9" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="42"/>
+      <c r="D9" s="31"/>
       <c r="G9" s="4">
         <v>44977</v>
       </c>
@@ -1615,10 +1633,10 @@
       <c r="B10" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="43" t="s">
+      <c r="C10" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="44"/>
+      <c r="D10" s="33"/>
       <c r="G10" s="4">
         <v>44978</v>
       </c>
@@ -1649,10 +1667,10 @@
       <c r="B11" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="45" t="s">
+      <c r="C11" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="46"/>
+      <c r="D11" s="35"/>
       <c r="G11" s="4">
         <v>44979</v>
       </c>
@@ -1706,44 +1724,86 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="G13" s="4"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="6"/>
+    <row r="13" spans="2:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="G13" s="4">
+        <v>44985</v>
+      </c>
+      <c r="H13" s="5">
+        <v>0.67361111111111116</v>
+      </c>
+      <c r="I13" s="6">
+        <v>0.70138888888888884</v>
+      </c>
       <c r="J13" s="5">
         <f>Tableau1[[#This Row],[Heure fin]]-Tableau1[[#This Row],[Heure debut]]</f>
-        <v>0</v>
+        <v>2.7777777777777679E-2</v>
       </c>
-      <c r="K13" s="7"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="G14" s="4"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="6"/>
+      <c r="K13" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L13" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="G14" s="4">
+        <v>44986</v>
+      </c>
+      <c r="H14" s="5">
+        <v>0.59722222222222221</v>
+      </c>
+      <c r="I14" s="6">
+        <v>0.62847222222222221</v>
+      </c>
       <c r="J14" s="5">
         <f>Tableau1[[#This Row],[Heure fin]]-Tableau1[[#This Row],[Heure debut]]</f>
-        <v>0</v>
+        <v>3.125E-2</v>
       </c>
-      <c r="K14" s="7"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="G15" s="4"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="6"/>
+      <c r="K14" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L14" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="G15" s="4">
+        <v>44986</v>
+      </c>
+      <c r="H15" s="5">
+        <v>0.63888888888888895</v>
+      </c>
+      <c r="I15" s="6">
+        <v>0.70486111111111116</v>
+      </c>
       <c r="J15" s="5">
         <f>Tableau1[[#This Row],[Heure fin]]-Tableau1[[#This Row],[Heure debut]]</f>
-        <v>0</v>
+        <v>6.597222222222221E-2</v>
       </c>
-      <c r="K15" s="7"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
+      <c r="K15" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L15" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="G16" s="4"/>
@@ -44239,18 +44299,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="G1:N2"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D4:E4"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D7:E7"/>
-    <mergeCell ref="G1:N2"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D4:E4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D4" r:id="rId1"/>
@@ -44611,12 +44671,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -44790,15 +44847,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE66B988-21FD-4E82-857E-C2E9A6618F3F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D38AEF9-57C3-439A-B892-EB0F14AB4CC0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="9b42e094-9454-4e38-a519-f9a276a20d04"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -44822,17 +44890,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D38AEF9-57C3-439A-B892-EB0F14AB4CC0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE66B988-21FD-4E82-857E-C2E9A6618F3F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="9b42e094-9454-4e38-a519-f9a276a20d04"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Documentation/JournalDeTravail-DTZ_DMS.xlsx
+++ b/Documentation/JournalDeTravail-DTZ_DMS.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="50">
   <si>
     <t>Nom du Projet :</t>
   </si>
@@ -163,6 +163,18 @@
   </si>
   <si>
     <t xml:space="preserve">Ajout des redirections vers toutes les pages </t>
+  </si>
+  <si>
+    <t>Code Login/Register</t>
+  </si>
+  <si>
+    <t>Continuation du code du login et register</t>
+  </si>
+  <si>
+    <t>Création du code du login et register</t>
+  </si>
+  <si>
+    <t>Nous nous sommes informés sur l'écriture des données dans le json</t>
   </si>
 </sst>
 </file>
@@ -713,43 +725,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -775,6 +757,36 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1380,8 +1392,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N9999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView tabSelected="1" topLeftCell="I5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1403,27 +1415,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G1" s="42" t="s">
+      <c r="G1" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
     </row>
     <row r="2" spans="2:14" ht="21" x14ac:dyDescent="0.25">
       <c r="F2" s="17"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
     </row>
     <row r="3" spans="2:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F3" s="18"/>
@@ -1431,14 +1443,14 @@
       <c r="H3" s="18"/>
     </row>
     <row r="4" spans="2:14" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="44"/>
-      <c r="D4" s="49" t="s">
+      <c r="C4" s="34"/>
+      <c r="D4" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="50"/>
+      <c r="E4" s="40"/>
       <c r="G4" s="20" t="s">
         <v>1</v>
       </c>
@@ -1465,14 +1477,14 @@
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="39"/>
-      <c r="D5" s="47" t="s">
+      <c r="C5" s="32"/>
+      <c r="D5" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="48"/>
+      <c r="E5" s="38"/>
       <c r="G5" s="4">
         <v>44957</v>
       </c>
@@ -1500,14 +1512,14 @@
       </c>
     </row>
     <row r="6" spans="2:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="39"/>
-      <c r="D6" s="45">
+      <c r="C6" s="32"/>
+      <c r="D6" s="35">
         <v>44957</v>
       </c>
-      <c r="E6" s="46"/>
+      <c r="E6" s="36"/>
       <c r="G6" s="4">
         <v>44957</v>
       </c>
@@ -1535,15 +1547,15 @@
       </c>
     </row>
     <row r="7" spans="2:14" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="40">
+      <c r="C7" s="48"/>
+      <c r="D7" s="49">
         <f>SUM(Tableau1[Durée])</f>
-        <v>0.4159722222222223</v>
+        <v>0.6069444444444444</v>
       </c>
-      <c r="E7" s="41"/>
+      <c r="E7" s="50"/>
       <c r="G7" s="4">
         <v>44958</v>
       </c>
@@ -1599,10 +1611,10 @@
     </row>
     <row r="9" spans="2:14" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="16"/>
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="31"/>
+      <c r="D9" s="42"/>
       <c r="G9" s="4">
         <v>44977</v>
       </c>
@@ -1633,10 +1645,10 @@
       <c r="B10" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="32" t="s">
+      <c r="C10" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="33"/>
+      <c r="D10" s="44"/>
       <c r="G10" s="4">
         <v>44978</v>
       </c>
@@ -1667,10 +1679,10 @@
       <c r="B11" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="34" t="s">
+      <c r="C11" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="35"/>
+      <c r="D11" s="46"/>
       <c r="G11" s="4">
         <v>44979</v>
       </c>
@@ -1805,57 +1817,113 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="G16" s="4"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="6"/>
+    <row r="16" spans="2:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="G16" s="4">
+        <v>44987</v>
+      </c>
+      <c r="H16" s="5">
+        <v>0.5625</v>
+      </c>
+      <c r="I16" s="6">
+        <v>0.62847222222222221</v>
+      </c>
       <c r="J16" s="5">
         <f>Tableau1[[#This Row],[Heure fin]]-Tableau1[[#This Row],[Heure debut]]</f>
-        <v>0</v>
+        <v>6.597222222222221E-2</v>
       </c>
-      <c r="K16" s="7"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-    </row>
-    <row r="17" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G17" s="4"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="6"/>
+      <c r="K16" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L16" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="7:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="G17" s="4">
+        <v>44987</v>
+      </c>
+      <c r="H17" s="5">
+        <v>0.63888888888888895</v>
+      </c>
+      <c r="I17" s="6">
+        <v>0.70138888888888884</v>
+      </c>
       <c r="J17" s="5">
         <f>Tableau1[[#This Row],[Heure fin]]-Tableau1[[#This Row],[Heure debut]]</f>
-        <v>0</v>
+        <v>6.2499999999999889E-2</v>
       </c>
-      <c r="K17" s="7"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-    </row>
-    <row r="18" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G18" s="4"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="6"/>
+      <c r="K17" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L17" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="7:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="G18" s="4">
+        <v>44991</v>
+      </c>
+      <c r="H18" s="5">
+        <v>0.33680555555555558</v>
+      </c>
+      <c r="I18" s="6">
+        <v>0.36805555555555558</v>
+      </c>
       <c r="J18" s="5">
         <f>Tableau1[[#This Row],[Heure fin]]-Tableau1[[#This Row],[Heure debut]]</f>
-        <v>0</v>
+        <v>3.125E-2</v>
       </c>
-      <c r="K18" s="7"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-    </row>
-    <row r="19" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G19" s="4"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="6"/>
+      <c r="K18" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L18" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="7:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="G19" s="4">
+        <v>44992</v>
+      </c>
+      <c r="H19" s="5">
+        <v>0.67361111111111116</v>
+      </c>
+      <c r="I19" s="6">
+        <v>0.70486111111111116</v>
+      </c>
       <c r="J19" s="5">
         <f>Tableau1[[#This Row],[Heure fin]]-Tableau1[[#This Row],[Heure debut]]</f>
-        <v>0</v>
+        <v>3.125E-2</v>
       </c>
-      <c r="K19" s="7"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
+      <c r="K19" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L19" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="20" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G20" s="4"/>
@@ -44299,18 +44367,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D7:E7"/>
     <mergeCell ref="G1:N2"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="D4:E4"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D7:E7"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D4" r:id="rId1"/>
@@ -44671,9 +44739,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -44847,26 +44918,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D38AEF9-57C3-439A-B892-EB0F14AB4CC0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE66B988-21FD-4E82-857E-C2E9A6618F3F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="9b42e094-9454-4e38-a519-f9a276a20d04"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -44890,9 +44950,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE66B988-21FD-4E82-857E-C2E9A6618F3F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D38AEF9-57C3-439A-B892-EB0F14AB4CC0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="9b42e094-9454-4e38-a519-f9a276a20d04"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Documentation/JournalDeTravail-DTZ_DMS.xlsx
+++ b/Documentation/JournalDeTravail-DTZ_DMS.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="50">
   <si>
     <t>Nom du Projet :</t>
   </si>
@@ -725,13 +725,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -757,36 +787,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1392,8 +1392,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N9999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1415,27 +1415,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
     </row>
     <row r="2" spans="2:14" ht="21" x14ac:dyDescent="0.25">
       <c r="F2" s="17"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
     </row>
     <row r="3" spans="2:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F3" s="18"/>
@@ -1443,14 +1443,14 @@
       <c r="H3" s="18"/>
     </row>
     <row r="4" spans="2:14" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="34"/>
-      <c r="D4" s="39" t="s">
+      <c r="C4" s="44"/>
+      <c r="D4" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="40"/>
+      <c r="E4" s="50"/>
       <c r="G4" s="20" t="s">
         <v>1</v>
       </c>
@@ -1477,14 +1477,14 @@
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="32"/>
-      <c r="D5" s="37" t="s">
+      <c r="C5" s="39"/>
+      <c r="D5" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="38"/>
+      <c r="E5" s="48"/>
       <c r="G5" s="4">
         <v>44957</v>
       </c>
@@ -1512,14 +1512,14 @@
       </c>
     </row>
     <row r="6" spans="2:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="32"/>
-      <c r="D6" s="35">
+      <c r="C6" s="39"/>
+      <c r="D6" s="45">
         <v>44957</v>
       </c>
-      <c r="E6" s="36"/>
+      <c r="E6" s="46"/>
       <c r="G6" s="4">
         <v>44957</v>
       </c>
@@ -1547,15 +1547,15 @@
       </c>
     </row>
     <row r="7" spans="2:14" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="48"/>
-      <c r="D7" s="49">
+      <c r="C7" s="37"/>
+      <c r="D7" s="40">
         <f>SUM(Tableau1[Durée])</f>
-        <v>0.6069444444444444</v>
-      </c>
-      <c r="E7" s="50"/>
+        <v>0.92638888888888848</v>
+      </c>
+      <c r="E7" s="41"/>
       <c r="G7" s="4">
         <v>44958</v>
       </c>
@@ -1611,10 +1611,10 @@
     </row>
     <row r="9" spans="2:14" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="16"/>
-      <c r="C9" s="41" t="s">
+      <c r="C9" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="42"/>
+      <c r="D9" s="31"/>
       <c r="G9" s="4">
         <v>44977</v>
       </c>
@@ -1645,10 +1645,10 @@
       <c r="B10" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="43" t="s">
+      <c r="C10" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="44"/>
+      <c r="D10" s="33"/>
       <c r="G10" s="4">
         <v>44978</v>
       </c>
@@ -1679,10 +1679,10 @@
       <c r="B11" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="45" t="s">
+      <c r="C11" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="46"/>
+      <c r="D11" s="35"/>
       <c r="G11" s="4">
         <v>44979</v>
       </c>
@@ -1925,83 +1925,167 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G20" s="4"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="6"/>
+    <row r="20" spans="7:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="G20" s="4">
+        <v>44993</v>
+      </c>
+      <c r="H20" s="5">
+        <v>0.59722222222222221</v>
+      </c>
+      <c r="I20" s="6">
+        <v>0.70138888888888884</v>
+      </c>
       <c r="J20" s="5">
         <f>Tableau1[[#This Row],[Heure fin]]-Tableau1[[#This Row],[Heure debut]]</f>
-        <v>0</v>
-      </c>
-      <c r="K20" s="7"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-    </row>
-    <row r="21" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G21" s="4"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="6"/>
+        <v>0.10416666666666663</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L20" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="7:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="G21" s="4">
+        <v>44994</v>
+      </c>
+      <c r="H21" s="5">
+        <v>0.5625</v>
+      </c>
+      <c r="I21" s="6">
+        <v>0.62847222222222221</v>
+      </c>
       <c r="J21" s="5">
         <f>Tableau1[[#This Row],[Heure fin]]-Tableau1[[#This Row],[Heure debut]]</f>
-        <v>0</v>
-      </c>
-      <c r="K21" s="7"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
+        <v>6.597222222222221E-2</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L21" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="22" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G22" s="4"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="6"/>
+      <c r="G22" s="4">
+        <v>44999</v>
+      </c>
+      <c r="H22" s="5">
+        <v>0.67013888888888884</v>
+      </c>
+      <c r="I22" s="6">
+        <v>0.70138888888888884</v>
+      </c>
       <c r="J22" s="5">
         <f>Tableau1[[#This Row],[Heure fin]]-Tableau1[[#This Row],[Heure debut]]</f>
-        <v>0</v>
-      </c>
-      <c r="K22" s="7"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-    </row>
-    <row r="23" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G23" s="4"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="6"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L22" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="7:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="G23" s="4">
+        <v>45000</v>
+      </c>
+      <c r="H23" s="5">
+        <v>0.63888888888888895</v>
+      </c>
+      <c r="I23" s="6">
+        <v>0.70138888888888884</v>
+      </c>
       <c r="J23" s="5">
         <f>Tableau1[[#This Row],[Heure fin]]-Tableau1[[#This Row],[Heure debut]]</f>
-        <v>0</v>
-      </c>
-      <c r="K23" s="7"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
+        <v>6.2499999999999889E-2</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L23" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="24" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G24" s="4"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="6"/>
+      <c r="G24" s="4">
+        <v>45001</v>
+      </c>
+      <c r="H24" s="5">
+        <v>0.67361111111111116</v>
+      </c>
+      <c r="I24" s="6">
+        <v>0.70138888888888884</v>
+      </c>
       <c r="J24" s="5">
         <f>Tableau1[[#This Row],[Heure fin]]-Tableau1[[#This Row],[Heure debut]]</f>
-        <v>0</v>
-      </c>
-      <c r="K24" s="7"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
+        <v>2.7777777777777679E-2</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L24" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="25" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G25" s="4"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="6"/>
+      <c r="G25" s="4">
+        <v>45006</v>
+      </c>
+      <c r="H25" s="5">
+        <v>0.67361111111111116</v>
+      </c>
+      <c r="I25" s="6">
+        <v>0.70138888888888884</v>
+      </c>
       <c r="J25" s="5">
         <f>Tableau1[[#This Row],[Heure fin]]-Tableau1[[#This Row],[Heure debut]]</f>
-        <v>0</v>
-      </c>
-      <c r="K25" s="7"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
+        <v>2.7777777777777679E-2</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L25" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="26" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G26" s="4"/>
@@ -44367,18 +44451,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="G1:N2"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D4:E4"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D7:E7"/>
-    <mergeCell ref="G1:N2"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D4:E4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D4" r:id="rId1"/>
@@ -44739,12 +44823,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -44918,15 +44999,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE66B988-21FD-4E82-857E-C2E9A6618F3F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D38AEF9-57C3-439A-B892-EB0F14AB4CC0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="9b42e094-9454-4e38-a519-f9a276a20d04"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -44950,17 +45042,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D38AEF9-57C3-439A-B892-EB0F14AB4CC0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE66B988-21FD-4E82-857E-C2E9A6618F3F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="9b42e094-9454-4e38-a519-f9a276a20d04"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Documentation/JournalDeTravail-DTZ_DMS.xlsx
+++ b/Documentation/JournalDeTravail-DTZ_DMS.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="57">
   <si>
     <t>Nom du Projet :</t>
   </si>
@@ -175,6 +175,27 @@
   </si>
   <si>
     <t>Nous nous sommes informés sur l'écriture des données dans le json</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Continuation de la page pour les produits</t>
+  </si>
+  <si>
+    <t>Finalisation de la page login (fonctionnable)</t>
+  </si>
+  <si>
+    <t>Création de la fonction logout (complète)</t>
+  </si>
+  <si>
+    <t>Création de la page panier ainsi que la fonction pour rajouter les produits dedans</t>
+  </si>
+  <si>
+    <t>Création et commencement de la page pour les produits</t>
+  </si>
+  <si>
+    <t>Correction des derniers bugs</t>
   </si>
 </sst>
 </file>
@@ -725,43 +746,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -787,6 +778,36 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1392,8 +1413,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N9999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="E19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1415,27 +1436,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G1" s="42" t="s">
+      <c r="G1" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
     </row>
     <row r="2" spans="2:14" ht="21" x14ac:dyDescent="0.25">
       <c r="F2" s="17"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
     </row>
     <row r="3" spans="2:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F3" s="18"/>
@@ -1443,14 +1464,14 @@
       <c r="H3" s="18"/>
     </row>
     <row r="4" spans="2:14" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="44"/>
-      <c r="D4" s="49" t="s">
+      <c r="C4" s="34"/>
+      <c r="D4" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="50"/>
+      <c r="E4" s="40"/>
       <c r="G4" s="20" t="s">
         <v>1</v>
       </c>
@@ -1477,14 +1498,14 @@
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="39"/>
-      <c r="D5" s="47" t="s">
+      <c r="C5" s="32"/>
+      <c r="D5" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="48"/>
+      <c r="E5" s="38"/>
       <c r="G5" s="4">
         <v>44957</v>
       </c>
@@ -1512,14 +1533,14 @@
       </c>
     </row>
     <row r="6" spans="2:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="39"/>
-      <c r="D6" s="45">
+      <c r="C6" s="32"/>
+      <c r="D6" s="35">
         <v>44957</v>
       </c>
-      <c r="E6" s="46"/>
+      <c r="E6" s="36"/>
       <c r="G6" s="4">
         <v>44957</v>
       </c>
@@ -1547,15 +1568,15 @@
       </c>
     </row>
     <row r="7" spans="2:14" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="40">
+      <c r="C7" s="48"/>
+      <c r="D7" s="49">
         <f>SUM(Tableau1[Durée])</f>
-        <v>0.92638888888888848</v>
-      </c>
-      <c r="E7" s="41"/>
+        <v>1.2944444444444438</v>
+      </c>
+      <c r="E7" s="50"/>
       <c r="G7" s="4">
         <v>44958</v>
       </c>
@@ -1611,10 +1632,10 @@
     </row>
     <row r="9" spans="2:14" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="16"/>
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="31"/>
+      <c r="D9" s="42"/>
       <c r="G9" s="4">
         <v>44977</v>
       </c>
@@ -1645,10 +1666,10 @@
       <c r="B10" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="32" t="s">
+      <c r="C10" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="33"/>
+      <c r="D10" s="44"/>
       <c r="G10" s="4">
         <v>44978</v>
       </c>
@@ -1679,10 +1700,10 @@
       <c r="B11" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="34" t="s">
+      <c r="C11" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="35"/>
+      <c r="D11" s="46"/>
       <c r="G11" s="4">
         <v>44979</v>
       </c>
@@ -2087,96 +2108,194 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G26" s="4"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="6"/>
+    <row r="26" spans="7:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="G26" s="4">
+        <v>45007</v>
+      </c>
+      <c r="H26" s="5">
+        <v>0.5625</v>
+      </c>
+      <c r="I26" s="6">
+        <v>0.70138888888888884</v>
+      </c>
       <c r="J26" s="5">
         <f>Tableau1[[#This Row],[Heure fin]]-Tableau1[[#This Row],[Heure debut]]</f>
-        <v>0</v>
-      </c>
-      <c r="K26" s="7"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-    </row>
-    <row r="27" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G27" s="4"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="6"/>
+        <v>0.13888888888888884</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L26" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="7:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="G27" s="4">
+        <v>45008</v>
+      </c>
+      <c r="H27" s="5">
+        <v>0.5625</v>
+      </c>
+      <c r="I27" s="6">
+        <v>0.62847222222222221</v>
+      </c>
       <c r="J27" s="5">
         <f>Tableau1[[#This Row],[Heure fin]]-Tableau1[[#This Row],[Heure debut]]</f>
-        <v>0</v>
-      </c>
-      <c r="K27" s="7"/>
-      <c r="L27" s="8"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-    </row>
-    <row r="28" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G28" s="4"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="6"/>
+        <v>6.597222222222221E-2</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L27" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="7:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="G28" s="4">
+        <v>45008</v>
+      </c>
+      <c r="H28" s="5">
+        <v>0.67361111111111116</v>
+      </c>
+      <c r="I28" s="6">
+        <v>0.70138888888888884</v>
+      </c>
       <c r="J28" s="5">
         <f>Tableau1[[#This Row],[Heure fin]]-Tableau1[[#This Row],[Heure debut]]</f>
-        <v>0</v>
-      </c>
-      <c r="K28" s="7"/>
-      <c r="L28" s="8"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-    </row>
-    <row r="29" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G29" s="4"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="6"/>
+        <v>2.7777777777777679E-2</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L28" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="7:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="G29" s="4">
+        <v>45013</v>
+      </c>
+      <c r="H29" s="5">
+        <v>0.67361111111111116</v>
+      </c>
+      <c r="I29" s="6">
+        <v>0.70138888888888884</v>
+      </c>
       <c r="J29" s="5">
         <f>Tableau1[[#This Row],[Heure fin]]-Tableau1[[#This Row],[Heure debut]]</f>
-        <v>0</v>
-      </c>
-      <c r="K29" s="7"/>
-      <c r="L29" s="8"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-    </row>
-    <row r="30" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G30" s="4"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="6"/>
+        <v>2.7777777777777679E-2</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L29" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="7:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="G30" s="4">
+        <v>45014</v>
+      </c>
+      <c r="H30" s="5">
+        <v>0.59722222222222221</v>
+      </c>
+      <c r="I30" s="6">
+        <v>0.62847222222222221</v>
+      </c>
       <c r="J30" s="5">
         <f>Tableau1[[#This Row],[Heure fin]]-Tableau1[[#This Row],[Heure debut]]</f>
-        <v>0</v>
-      </c>
-      <c r="K30" s="7"/>
-      <c r="L30" s="8"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-    </row>
-    <row r="31" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G31" s="4"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="6"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L30" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="7:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="G31" s="4">
+        <v>45014</v>
+      </c>
+      <c r="H31" s="5">
+        <v>0.63888888888888895</v>
+      </c>
+      <c r="I31" s="6">
+        <v>0.70138888888888884</v>
+      </c>
       <c r="J31" s="5">
         <f>Tableau1[[#This Row],[Heure fin]]-Tableau1[[#This Row],[Heure debut]]</f>
-        <v>0</v>
-      </c>
-      <c r="K31" s="7"/>
-      <c r="L31" s="8"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-    </row>
-    <row r="32" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G32" s="4"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="6"/>
+        <v>6.2499999999999889E-2</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L31" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="7:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="G32" s="4">
+        <v>45021</v>
+      </c>
+      <c r="H32" s="5">
+        <v>0.57638888888888895</v>
+      </c>
+      <c r="I32" s="6">
+        <v>0.59027777777777779</v>
+      </c>
       <c r="J32" s="5">
         <f>Tableau1[[#This Row],[Heure fin]]-Tableau1[[#This Row],[Heure debut]]</f>
-        <v>0</v>
-      </c>
-      <c r="K32" s="7"/>
-      <c r="L32" s="8"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
+        <v>1.388888888888884E-2</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L32" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="33" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G33" s="4"/>
@@ -44451,18 +44570,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D7:E7"/>
     <mergeCell ref="G1:N2"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="D4:E4"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D7:E7"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D4" r:id="rId1"/>
@@ -44823,9 +44942,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -44999,26 +45121,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D38AEF9-57C3-439A-B892-EB0F14AB4CC0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE66B988-21FD-4E82-857E-C2E9A6618F3F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="9b42e094-9454-4e38-a519-f9a276a20d04"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -45042,9 +45153,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE66B988-21FD-4E82-857E-C2E9A6618F3F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D38AEF9-57C3-439A-B892-EB0F14AB4CC0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="9b42e094-9454-4e38-a519-f9a276a20d04"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>